--- a/Data/EC/NIT-9015317527.xlsx
+++ b/Data/EC/NIT-9015317527.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99430A40-E2B8-49D4-8378-30B548FA7C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{670991BA-8DCF-4F51-A8CE-889A8BFE1314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D104BD7-6C73-44F9-B28F-B67A9571CF2B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F24811FA-BDC4-4543-9523-079211D5AEC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,58 +65,58 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143414285</t>
+  </si>
+  <si>
+    <t>CINTHIA HERAZO CASTILLO</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>1004367229</t>
+  </si>
+  <si>
+    <t>AUGUSTO SNEIDER SOMERSON RAMIREZ</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>1001976903</t>
+  </si>
+  <si>
+    <t>MAYCOL SOLANO REYES</t>
+  </si>
+  <si>
     <t>1063153542</t>
   </si>
   <si>
     <t>WILLIAM JOSE SANCHEZ GABALO</t>
   </si>
   <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>1004367229</t>
-  </si>
-  <si>
-    <t>AUGUSTO SNEIDER SOMERSON RAMIREZ</t>
-  </si>
-  <si>
-    <t>1001976903</t>
-  </si>
-  <si>
-    <t>MAYCOL SOLANO REYES</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
     <t>1007375876</t>
   </si>
   <si>
     <t>DANIELA PAOLA BARRIOS MIRANDA</t>
-  </si>
-  <si>
-    <t>1143414285</t>
-  </si>
-  <si>
-    <t>CINTHIA HERAZO CASTILLO</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
   </si>
   <si>
     <t>2501</t>
@@ -533,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7AA3F59-1571-87D9-BACC-391F9F705AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD736D77-180C-EF7F-9349-5941CE32424A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A825EE70-63FA-4523-AEF3-0263E6ED92D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3E1F6E-1CF8-437F-8BFF-0EAC8C7F78C2}">
   <dimension ref="B2:J62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1076,13 +1076,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
@@ -1099,13 +1099,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1122,13 +1122,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1145,13 +1145,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
@@ -1191,13 +1191,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1214,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
-      </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1237,13 +1237,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1260,13 +1260,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1283,13 +1283,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1306,13 +1306,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1329,13 +1329,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1352,13 +1352,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>19</v>
-      </c>
       <c r="E29" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1375,19 +1375,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
       </c>
       <c r="G30" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1398,19 +1398,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
       </c>
       <c r="G31" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1421,19 +1421,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F32" s="18">
         <v>52000</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1444,19 +1444,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1467,19 +1467,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F34" s="18">
         <v>52000</v>
       </c>
       <c r="G34" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1490,19 +1490,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
       </c>
       <c r="G35" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1513,19 +1513,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D36" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F36" s="18">
         <v>52000</v>
       </c>
       <c r="G36" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1536,19 +1536,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
       </c>
       <c r="G37" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1559,13 +1559,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1582,13 +1582,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1605,13 +1605,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1628,13 +1628,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1651,13 +1651,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1674,13 +1674,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1697,13 +1697,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1720,13 +1720,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1743,13 +1743,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F46" s="18">
         <v>52000</v>
@@ -1766,13 +1766,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1789,13 +1789,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D48" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -1812,13 +1812,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F49" s="18">
         <v>52000</v>
@@ -1835,13 +1835,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D50" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F50" s="18">
         <v>52000</v>
@@ -1858,13 +1858,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F51" s="18">
         <v>52000</v>
@@ -1881,10 +1881,10 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>27</v>
@@ -1904,10 +1904,10 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>27</v>
@@ -1927,10 +1927,10 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>27</v>
@@ -1939,7 +1939,7 @@
         <v>50266</v>
       </c>
       <c r="G54" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -1950,10 +1950,10 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>27</v>
@@ -1973,10 +1973,10 @@
         <v>8</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E56" s="22" t="s">
         <v>27</v>

--- a/Data/EC/NIT-9015317527.xlsx
+++ b/Data/EC/NIT-9015317527.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{670991BA-8DCF-4F51-A8CE-889A8BFE1314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBB808A9-922C-4F01-A2DE-F95327AB85C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F24811FA-BDC4-4543-9523-079211D5AEC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EFEDEB3D-2443-43F8-95B8-E5523CC282F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,58 +65,58 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1004367229</t>
+  </si>
+  <si>
+    <t>AUGUSTO SNEIDER SOMERSON RAMIREZ</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>1001976903</t>
+  </si>
+  <si>
+    <t>MAYCOL SOLANO REYES</t>
+  </si>
+  <si>
+    <t>1063153542</t>
+  </si>
+  <si>
+    <t>WILLIAM JOSE SANCHEZ GABALO</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
     <t>1143414285</t>
   </si>
   <si>
     <t>CINTHIA HERAZO CASTILLO</t>
   </si>
   <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>1007375876</t>
+  </si>
+  <si>
+    <t>DANIELA PAOLA BARRIOS MIRANDA</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
     <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>1004367229</t>
-  </si>
-  <si>
-    <t>AUGUSTO SNEIDER SOMERSON RAMIREZ</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>1001976903</t>
-  </si>
-  <si>
-    <t>MAYCOL SOLANO REYES</t>
-  </si>
-  <si>
-    <t>1063153542</t>
-  </si>
-  <si>
-    <t>WILLIAM JOSE SANCHEZ GABALO</t>
-  </si>
-  <si>
-    <t>1007375876</t>
-  </si>
-  <si>
-    <t>DANIELA PAOLA BARRIOS MIRANDA</t>
   </si>
   <si>
     <t>2501</t>
@@ -218,7 +218,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -231,9 +233,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,23 +433,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,10 +477,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +533,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD736D77-180C-EF7F-9349-5941CE32424A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCCF92ED-44AA-6E61-B4D4-35C8F1B13E4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,7 +884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3E1F6E-1CF8-437F-8BFF-0EAC8C7F78C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B241A093-AC8D-4306-8C80-92E22E147E02}">
   <dimension ref="B2:J62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1076,13 +1076,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
@@ -1099,13 +1099,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1128,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1145,13 +1145,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
@@ -1168,10 +1168,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1197,7 +1197,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1214,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1237,13 +1237,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1260,13 +1260,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1283,13 +1283,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1312,7 +1312,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1329,13 +1329,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1352,13 +1352,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1375,19 +1375,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F30" s="18">
         <v>52000</v>
       </c>
       <c r="G30" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1398,19 +1398,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F31" s="18">
         <v>52000</v>
       </c>
       <c r="G31" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1421,19 +1421,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1444,19 +1444,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1467,19 +1467,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
       </c>
       <c r="G34" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1490,19 +1490,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
       </c>
       <c r="G35" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1513,19 +1513,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="E36" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
       </c>
       <c r="G36" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1536,19 +1536,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
       </c>
       <c r="G37" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1559,13 +1559,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1582,13 +1582,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1605,13 +1605,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1628,13 +1628,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1651,13 +1651,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1674,13 +1674,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1697,13 +1697,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1720,13 +1720,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1743,13 +1743,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F46" s="18">
         <v>52000</v>
@@ -1766,13 +1766,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1789,13 +1789,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -1812,13 +1812,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F49" s="18">
         <v>52000</v>
@@ -1835,13 +1835,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F50" s="18">
         <v>52000</v>
@@ -1858,13 +1858,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D51" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F51" s="18">
         <v>52000</v>
@@ -1881,10 +1881,10 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>27</v>
@@ -1904,10 +1904,10 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>27</v>
@@ -1927,10 +1927,10 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>27</v>
@@ -1939,7 +1939,7 @@
         <v>50266</v>
       </c>
       <c r="G54" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -1950,10 +1950,10 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>27</v>
@@ -1973,10 +1973,10 @@
         <v>8</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E56" s="22" t="s">
         <v>27</v>
